--- a/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1363,7 +1363,7 @@
 </t>
   </si>
   <si>
-    <t>Primer Apellido</t>
+    <t>Apellidos del administrativo</t>
   </si>
   <si>
     <t>Se debe ingresar el primer apellido, segun indica su identificacion personal</t>
@@ -1437,7 +1437,7 @@
 middle name</t>
   </si>
   <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
+    <t>Nombres del administrativo</t>
   </si>
   <si>
     <t>Given name.</t>
@@ -2097,7 +2097,7 @@
     <t>Practitioner.qualification.code.text</t>
   </si>
   <si>
-    <t>Nombre del titulo entregado por la Super Intendencia de Salud</t>
+    <t>Título Profesional como texto libre</t>
   </si>
   <si>
     <t>Practitioner.qualification:TituloProfesional.period</t>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>88</v>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>79</v>
@@ -16463,7 +16463,7 @@
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>88</v>
@@ -16575,7 +16575,7 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>88</v>

--- a/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4014,7 +4014,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>89</v>

--- a/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8690" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8690" uniqueCount="806">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1261,7 +1261,7 @@
 </t>
   </si>
   <si>
-    <t>Nombre del prestador administrativo</t>
+    <t>Nombre(s) y apellido(s) del prestador administrativo</t>
   </si>
   <si>
     <t>The name(s) associated with the practitioner.</t>
@@ -1363,7 +1363,7 @@
 </t>
   </si>
   <si>
-    <t>Apellidos del administrativo</t>
+    <t>Primer apellido del administrativo</t>
   </si>
   <si>
     <t>Se debe ingresar el primer apellido, segun indica su identificacion personal</t>
@@ -1412,6 +1412,9 @@
 </t>
   </si>
   <si>
+    <t>Segundo apellido del administrativo</t>
+  </si>
+  <si>
     <t>Segundo Apellido</t>
   </si>
   <si>
@@ -1437,7 +1440,7 @@
 middle name</t>
   </si>
   <si>
-    <t>Nombres del administrativo</t>
+    <t>Nombre(s) del administrativo</t>
   </si>
   <si>
     <t>Given name.</t>
@@ -15466,7 +15469,7 @@
         <v>452</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15546,10 +15549,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15575,10 +15578,10 @@
         <v>167</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15602,7 +15605,7 @@
         <v>77</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="X112" t="s" s="2">
         <v>77</v>
@@ -15629,7 +15632,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -15658,14 +15661,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15687,13 +15690,13 @@
         <v>167</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15743,7 +15746,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -15758,13 +15761,13 @@
         <v>100</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>77</v>
@@ -15772,10 +15775,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15801,10 +15804,10 @@
         <v>167</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -15855,7 +15858,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -15870,13 +15873,13 @@
         <v>100</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>77</v>
@@ -15884,10 +15887,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15913,10 +15916,10 @@
         <v>167</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15967,7 +15970,7 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -15982,10 +15985,10 @@
         <v>100</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>77</v>
@@ -15996,10 +15999,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16025,14 +16028,14 @@
         <v>216</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>77</v>
@@ -16081,7 +16084,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -16096,10 +16099,10 @@
         <v>100</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>222</v>
@@ -16110,10 +16113,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16136,19 +16139,19 @@
         <v>89</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>77</v>
@@ -16197,7 +16200,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -16212,13 +16215,13 @@
         <v>100</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>77</v>
@@ -16226,10 +16229,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16338,10 +16341,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16452,10 +16455,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16481,10 +16484,10 @@
         <v>108</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16514,10 +16517,10 @@
         <v>182</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>77</v>
@@ -16535,7 +16538,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -16544,19 +16547,19 @@
         <v>88</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>77</v>
@@ -16564,10 +16567,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16593,16 +16596,16 @@
         <v>167</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>77</v>
@@ -16651,7 +16654,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -16666,10 +16669,10 @@
         <v>100</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>214</v>
@@ -16680,10 +16683,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16709,16 +16712,16 @@
         <v>108</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>77</v>
@@ -16746,10 +16749,10 @@
         <v>182</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>77</v>
@@ -16767,7 +16770,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -16782,13 +16785,13 @@
         <v>100</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>424</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>77</v>
@@ -16796,10 +16799,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16822,16 +16825,16 @@
         <v>89</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -16881,7 +16884,7 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -16910,10 +16913,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16939,10 +16942,10 @@
         <v>216</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -16993,7 +16996,7 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
@@ -17011,7 +17014,7 @@
         <v>131</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>222</v>
@@ -17022,10 +17025,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17134,10 +17137,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17248,10 +17251,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17274,16 +17277,16 @@
         <v>89</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -17333,7 +17336,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -17342,16 +17345,16 @@
         <v>88</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>77</v>
@@ -17362,10 +17365,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17388,23 +17391,23 @@
         <v>89</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q128" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="R128" t="s" s="2">
         <v>77</v>
@@ -17449,7 +17452,7 @@
         <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>78</v>
@@ -17458,16 +17461,16 @@
         <v>88</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>77</v>
@@ -17478,10 +17481,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17504,19 +17507,19 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>77</v>
@@ -17565,7 +17568,7 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>78</v>
@@ -17580,13 +17583,13 @@
         <v>100</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>77</v>
@@ -17594,10 +17597,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17623,14 +17626,14 @@
         <v>108</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -17658,10 +17661,10 @@
         <v>182</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>77</v>
@@ -17679,7 +17682,7 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>78</v>
@@ -17694,13 +17697,13 @@
         <v>100</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>77</v>
@@ -17708,10 +17711,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17734,17 +17737,17 @@
         <v>89</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -17793,7 +17796,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>78</v>
@@ -17808,13 +17811,13 @@
         <v>100</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>77</v>
@@ -17822,10 +17825,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17848,17 +17851,17 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>77</v>
@@ -17907,7 +17910,7 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
@@ -17925,10 +17928,10 @@
         <v>77</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>77</v>
@@ -17936,10 +17939,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17962,13 +17965,13 @@
         <v>77</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -18007,10 +18010,10 @@
         <v>77</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AC133" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AD133" t="s" s="2">
         <v>77</v>
@@ -18019,7 +18022,7 @@
         <v>137</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -18034,13 +18037,13 @@
         <v>100</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>77</v>
@@ -18048,10 +18051,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18160,10 +18163,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18274,14 +18277,14 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
@@ -18303,10 +18306,10 @@
         <v>133</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N136" t="s" s="2">
         <v>153</v>
@@ -18361,7 +18364,7 @@
         <v>77</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>78</v>
@@ -18390,10 +18393,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18419,14 +18422,14 @@
         <v>157</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>77</v>
@@ -18475,7 +18478,7 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
@@ -18493,7 +18496,7 @@
         <v>77</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>77</v>
@@ -18504,10 +18507,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18533,10 +18536,10 @@
         <v>188</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -18563,13 +18566,13 @@
         <v>77</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>77</v>
@@ -18587,7 +18590,7 @@
         <v>77</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>88</v>
@@ -18605,10 +18608,10 @@
         <v>77</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>77</v>
@@ -18616,10 +18619,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18645,14 +18648,14 @@
         <v>216</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>77</v>
@@ -18701,7 +18704,7 @@
         <v>77</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>78</v>
@@ -18719,10 +18722,10 @@
         <v>77</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>77</v>
@@ -18730,10 +18733,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18759,10 +18762,10 @@
         <v>224</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -18813,7 +18816,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
@@ -18831,7 +18834,7 @@
         <v>77</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>77</v>
@@ -18842,13 +18845,13 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -18870,13 +18873,13 @@
         <v>77</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -18927,7 +18930,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>78</v>
@@ -18942,13 +18945,13 @@
         <v>100</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>77</v>
@@ -18956,10 +18959,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19068,10 +19071,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19182,14 +19185,14 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -19211,10 +19214,10 @@
         <v>133</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N144" t="s" s="2">
         <v>153</v>
@@ -19269,7 +19272,7 @@
         <v>77</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>78</v>
@@ -19298,10 +19301,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19327,14 +19330,14 @@
         <v>157</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -19383,7 +19386,7 @@
         <v>77</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>78</v>
@@ -19401,7 +19404,7 @@
         <v>77</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>77</v>
@@ -19412,10 +19415,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19524,10 +19527,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19638,10 +19641,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19754,10 +19757,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19870,10 +19873,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19986,10 +19989,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20015,10 +20018,10 @@
         <v>167</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N151" t="s" s="2">
         <v>209</v>
@@ -20032,7 +20035,7 @@
         <v>77</v>
       </c>
       <c r="S151" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>210</v>
@@ -20100,10 +20103,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20212,10 +20215,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20326,10 +20329,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20355,10 +20358,10 @@
         <v>188</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -20385,13 +20388,13 @@
         <v>77</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>77</v>
@@ -20409,7 +20412,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>88</v>
@@ -20427,10 +20430,10 @@
         <v>77</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>77</v>
@@ -20438,10 +20441,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20550,10 +20553,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20664,10 +20667,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20780,10 +20783,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20892,10 +20895,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21006,10 +21009,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21035,10 +21038,10 @@
         <v>102</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N160" t="s" s="2">
         <v>265</v>
@@ -21122,10 +21125,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21236,10 +21239,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21265,10 +21268,10 @@
         <v>108</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -21350,10 +21353,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21379,10 +21382,10 @@
         <v>167</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -21464,10 +21467,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21580,10 +21583,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21609,7 +21612,7 @@
         <v>167</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>307</v>
@@ -21696,10 +21699,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21725,14 +21728,14 @@
         <v>216</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>77</v>
@@ -21781,7 +21784,7 @@
         <v>77</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>78</v>
@@ -21799,10 +21802,10 @@
         <v>77</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>77</v>
@@ -21810,10 +21813,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -21839,10 +21842,10 @@
         <v>224</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -21893,7 +21896,7 @@
         <v>77</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>78</v>
@@ -21911,7 +21914,7 @@
         <v>77</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>77</v>
@@ -21922,10 +21925,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22034,10 +22037,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22148,10 +22151,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22177,13 +22180,13 @@
         <v>167</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" t="s" s="2">
@@ -22233,7 +22236,7 @@
         <v>77</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>78</v>
@@ -22242,7 +22245,7 @@
         <v>88</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>100</v>
@@ -22262,10 +22265,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22291,13 +22294,13 @@
         <v>102</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
@@ -22326,10 +22329,10 @@
         <v>240</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="Z171" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>77</v>
@@ -22347,7 +22350,7 @@
         <v>77</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>78</v>
@@ -22376,10 +22379,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22405,13 +22408,13 @@
         <v>157</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
@@ -22461,7 +22464,7 @@
         <v>77</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>78</v>
@@ -22479,7 +22482,7 @@
         <v>77</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>77</v>
@@ -22490,10 +22493,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22519,13 +22522,13 @@
         <v>167</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" t="s" s="2">
@@ -22575,7 +22578,7 @@
         <v>77</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>78</v>
@@ -22604,13 +22607,13 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>77</v>
@@ -22632,13 +22635,13 @@
         <v>77</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -22689,7 +22692,7 @@
         <v>77</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>78</v>
@@ -22704,13 +22707,13 @@
         <v>100</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>77</v>
@@ -22718,10 +22721,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -22830,10 +22833,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -22944,14 +22947,14 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
@@ -22973,10 +22976,10 @@
         <v>133</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N177" t="s" s="2">
         <v>153</v>
@@ -23031,7 +23034,7 @@
         <v>77</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>78</v>
@@ -23060,10 +23063,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23089,14 +23092,14 @@
         <v>157</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -23145,7 +23148,7 @@
         <v>77</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>78</v>
@@ -23163,7 +23166,7 @@
         <v>77</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>77</v>
@@ -23174,10 +23177,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23286,10 +23289,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -23400,10 +23403,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -23516,10 +23519,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -23632,10 +23635,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -23748,10 +23751,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -23777,10 +23780,10 @@
         <v>167</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="N184" t="s" s="2">
         <v>209</v>
@@ -23794,7 +23797,7 @@
         <v>77</v>
       </c>
       <c r="S184" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="T184" t="s" s="2">
         <v>210</v>
@@ -23862,10 +23865,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -23974,10 +23977,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24088,10 +24091,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24117,10 +24120,10 @@
         <v>188</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -24147,13 +24150,13 @@
         <v>77</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Z187" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AA187" t="s" s="2">
         <v>77</v>
@@ -24171,7 +24174,7 @@
         <v>77</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>88</v>
@@ -24189,10 +24192,10 @@
         <v>77</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>77</v>
@@ -24200,10 +24203,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24312,10 +24315,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -24426,10 +24429,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -24542,10 +24545,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -24654,10 +24657,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -24768,10 +24771,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -24797,10 +24800,10 @@
         <v>102</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N193" t="s" s="2">
         <v>265</v>
@@ -24884,10 +24887,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -24998,10 +25001,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -25112,10 +25115,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -25141,10 +25144,10 @@
         <v>167</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
@@ -25226,10 +25229,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -25342,10 +25345,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -25371,7 +25374,7 @@
         <v>167</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M198" t="s" s="2">
         <v>307</v>
@@ -25458,10 +25461,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -25487,14 +25490,14 @@
         <v>216</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>77</v>
@@ -25543,7 +25546,7 @@
         <v>77</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>78</v>
@@ -25561,10 +25564,10 @@
         <v>77</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>77</v>
@@ -25572,10 +25575,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -25601,10 +25604,10 @@
         <v>224</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -25655,7 +25658,7 @@
         <v>77</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>78</v>
@@ -25673,7 +25676,7 @@
         <v>77</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>77</v>
@@ -25684,10 +25687,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -25796,10 +25799,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -25910,10 +25913,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -25939,13 +25942,13 @@
         <v>167</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O203" s="2"/>
       <c r="P203" t="s" s="2">
@@ -25995,7 +25998,7 @@
         <v>77</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>78</v>
@@ -26004,7 +26007,7 @@
         <v>88</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AJ203" t="s" s="2">
         <v>100</v>
@@ -26024,10 +26027,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -26053,13 +26056,13 @@
         <v>102</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
@@ -26088,10 +26091,10 @@
         <v>240</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="Z204" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AA204" t="s" s="2">
         <v>77</v>
@@ -26109,7 +26112,7 @@
         <v>77</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>78</v>
@@ -26138,10 +26141,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -26167,13 +26170,13 @@
         <v>157</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
@@ -26223,7 +26226,7 @@
         <v>77</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>78</v>
@@ -26241,7 +26244,7 @@
         <v>77</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AM205" t="s" s="2">
         <v>77</v>
@@ -26252,10 +26255,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -26281,13 +26284,13 @@
         <v>167</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
@@ -26337,7 +26340,7 @@
         <v>77</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>78</v>
@@ -26366,13 +26369,13 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D207" t="s" s="2">
         <v>77</v>
@@ -26394,13 +26397,13 @@
         <v>77</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -26451,7 +26454,7 @@
         <v>77</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>78</v>
@@ -26466,13 +26469,13 @@
         <v>100</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN207" t="s" s="2">
         <v>77</v>
@@ -26480,10 +26483,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -26592,10 +26595,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -26706,14 +26709,14 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" t="s" s="2">
@@ -26735,10 +26738,10 @@
         <v>133</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N210" t="s" s="2">
         <v>153</v>
@@ -26793,7 +26796,7 @@
         <v>77</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>78</v>
@@ -26822,10 +26825,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -26851,14 +26854,14 @@
         <v>157</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>77</v>
@@ -26907,7 +26910,7 @@
         <v>77</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>78</v>
@@ -26925,7 +26928,7 @@
         <v>77</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>77</v>
@@ -26936,10 +26939,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -27048,10 +27051,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -27162,10 +27165,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -27278,10 +27281,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -27394,10 +27397,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -27510,10 +27513,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -27539,10 +27542,10 @@
         <v>167</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="N217" t="s" s="2">
         <v>209</v>
@@ -27556,7 +27559,7 @@
         <v>77</v>
       </c>
       <c r="S217" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="T217" t="s" s="2">
         <v>210</v>
@@ -27624,10 +27627,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -27736,10 +27739,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -27850,10 +27853,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -27879,10 +27882,10 @@
         <v>188</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -27909,13 +27912,13 @@
         <v>77</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Z220" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AA220" t="s" s="2">
         <v>77</v>
@@ -27933,7 +27936,7 @@
         <v>77</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>88</v>
@@ -27951,10 +27954,10 @@
         <v>77</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN220" t="s" s="2">
         <v>77</v>
@@ -27962,10 +27965,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -28074,10 +28077,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -28188,10 +28191,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -28304,10 +28307,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -28416,10 +28419,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -28530,10 +28533,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -28559,10 +28562,10 @@
         <v>102</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N226" t="s" s="2">
         <v>265</v>
@@ -28646,10 +28649,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -28760,10 +28763,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -28874,10 +28877,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -28903,10 +28906,10 @@
         <v>167</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
@@ -28988,10 +28991,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -29104,10 +29107,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -29133,7 +29136,7 @@
         <v>167</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>307</v>
@@ -29220,10 +29223,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -29249,14 +29252,14 @@
         <v>216</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P232" t="s" s="2">
         <v>77</v>
@@ -29305,7 +29308,7 @@
         <v>77</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>78</v>
@@ -29323,10 +29326,10 @@
         <v>77</v>
       </c>
       <c r="AL232" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM232" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AN232" t="s" s="2">
         <v>77</v>
@@ -29334,10 +29337,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -29363,10 +29366,10 @@
         <v>224</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
@@ -29417,7 +29420,7 @@
         <v>77</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>78</v>
@@ -29435,7 +29438,7 @@
         <v>77</v>
       </c>
       <c r="AL233" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AM233" t="s" s="2">
         <v>77</v>
@@ -29446,10 +29449,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -29558,10 +29561,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -29672,10 +29675,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -29701,13 +29704,13 @@
         <v>167</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O236" s="2"/>
       <c r="P236" t="s" s="2">
@@ -29757,7 +29760,7 @@
         <v>77</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>78</v>
@@ -29766,7 +29769,7 @@
         <v>88</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AJ236" t="s" s="2">
         <v>100</v>
@@ -29786,10 +29789,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -29815,13 +29818,13 @@
         <v>102</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" t="s" s="2">
@@ -29850,10 +29853,10 @@
         <v>240</v>
       </c>
       <c r="Y237" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="Z237" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AA237" t="s" s="2">
         <v>77</v>
@@ -29871,7 +29874,7 @@
         <v>77</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>78</v>
@@ -29900,10 +29903,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -29929,13 +29932,13 @@
         <v>157</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
@@ -29985,7 +29988,7 @@
         <v>77</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>78</v>
@@ -30003,7 +30006,7 @@
         <v>77</v>
       </c>
       <c r="AL238" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AM238" t="s" s="2">
         <v>77</v>
@@ -30014,10 +30017,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -30043,13 +30046,13 @@
         <v>167</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O239" s="2"/>
       <c r="P239" t="s" s="2">
@@ -30099,7 +30102,7 @@
         <v>77</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>78</v>
@@ -30128,10 +30131,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -30157,16 +30160,16 @@
         <v>188</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="O240" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>77</v>
@@ -30215,7 +30218,7 @@
         <v>77</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>78</v>
@@ -30230,13 +30233,13 @@
         <v>100</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AL240" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AM240" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AN240" t="s" s="2">
         <v>77</v>

--- a/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8690" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8690" uniqueCount="807">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -893,6 +893,9 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>Coding.code</t>
   </si>
   <si>
@@ -1137,7 +1140,7 @@
     <t>Practitioner.identifier:pasaporte.type.coding.code</t>
   </si>
   <si>
-    <t>5</t>
+    <t>05</t>
   </si>
   <si>
     <t>Practitioner.identifier:pasaporte.type.coding.display</t>
@@ -1206,7 +1209,7 @@
     <t>Practitioner.identifier:otro.type.coding.code</t>
   </si>
   <si>
-    <t>4</t>
+    <t>14</t>
   </si>
   <si>
     <t>Practitioner.identifier:otro.type.coding.display</t>
@@ -6673,7 +6676,7 @@
         <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>77</v>
@@ -6712,7 +6715,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6727,10 +6730,10 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -6741,10 +6744,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6770,14 +6773,14 @@
         <v>167</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6826,7 +6829,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6841,10 +6844,10 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6855,10 +6858,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6881,19 +6884,19 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6942,7 +6945,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6957,10 +6960,10 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6971,10 +6974,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7000,16 +7003,16 @@
         <v>167</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -7058,7 +7061,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -7073,10 +7076,10 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -7087,7 +7090,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>196</v>
@@ -7116,13 +7119,13 @@
         <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>200</v>
@@ -7203,7 +7206,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>206</v>
@@ -7232,10 +7235,10 @@
         <v>167</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>209</v>
@@ -7317,7 +7320,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>215</v>
@@ -7429,7 +7432,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>223</v>
@@ -7543,13 +7546,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>156</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>77</v>
@@ -7574,10 +7577,10 @@
         <v>157</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7659,7 +7662,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>166</v>
@@ -7771,7 +7774,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>172</v>
@@ -7885,7 +7888,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>177</v>
@@ -8001,7 +8004,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>187</v>
@@ -8117,7 +8120,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>244</v>
@@ -8229,7 +8232,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>246</v>
@@ -8343,7 +8346,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>248</v>
@@ -8459,7 +8462,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>258</v>
@@ -8571,7 +8574,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>260</v>
@@ -8685,7 +8688,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>262</v>
@@ -8801,7 +8804,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>271</v>
@@ -8915,7 +8918,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>279</v>
@@ -8961,7 +8964,7 @@
         <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>77</v>
@@ -9000,7 +9003,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -9015,10 +9018,10 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -9029,10 +9032,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9058,14 +9061,14 @@
         <v>167</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -9114,7 +9117,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9129,10 +9132,10 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -9143,10 +9146,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9169,19 +9172,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -9230,7 +9233,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9245,10 +9248,10 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -9259,10 +9262,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9288,16 +9291,16 @@
         <v>167</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -9346,7 +9349,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9361,10 +9364,10 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -9375,7 +9378,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>196</v>
@@ -9404,13 +9407,13 @@
         <v>102</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>200</v>
@@ -9491,7 +9494,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>206</v>
@@ -9520,10 +9523,10 @@
         <v>167</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>209</v>
@@ -9605,7 +9608,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>215</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>223</v>
@@ -9831,13 +9834,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>156</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>77</v>
@@ -9862,10 +9865,10 @@
         <v>157</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9947,7 +9950,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>166</v>
@@ -10059,7 +10062,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>172</v>
@@ -10173,7 +10176,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>177</v>
@@ -10289,7 +10292,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>187</v>
@@ -10405,7 +10408,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>244</v>
@@ -10517,7 +10520,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>246</v>
@@ -10631,7 +10634,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>248</v>
@@ -10747,7 +10750,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>258</v>
@@ -10859,7 +10862,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>260</v>
@@ -10973,7 +10976,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>262</v>
@@ -11089,7 +11092,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>271</v>
@@ -11203,7 +11206,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>279</v>
@@ -11249,7 +11252,7 @@
         <v>77</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>77</v>
@@ -11288,7 +11291,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11303,10 +11306,10 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -11317,10 +11320,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11346,14 +11349,14 @@
         <v>167</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -11402,7 +11405,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11417,10 +11420,10 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>77</v>
@@ -11431,10 +11434,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11457,19 +11460,19 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -11518,7 +11521,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11533,10 +11536,10 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -11547,10 +11550,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11576,16 +11579,16 @@
         <v>167</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -11634,7 +11637,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11649,10 +11652,10 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -11663,7 +11666,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>196</v>
@@ -11692,13 +11695,13 @@
         <v>102</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>200</v>
@@ -11779,7 +11782,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>206</v>
@@ -11808,10 +11811,10 @@
         <v>167</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>209</v>
@@ -11893,7 +11896,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>215</v>
@@ -12005,7 +12008,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>223</v>
@@ -12119,13 +12122,13 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>156</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>77</v>
@@ -12150,10 +12153,10 @@
         <v>157</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -12235,7 +12238,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>166</v>
@@ -12347,7 +12350,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>172</v>
@@ -12461,7 +12464,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>177</v>
@@ -12577,7 +12580,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>187</v>
@@ -12693,7 +12696,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>244</v>
@@ -12805,7 +12808,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>246</v>
@@ -12919,7 +12922,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>248</v>
@@ -13035,7 +13038,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>258</v>
@@ -13147,7 +13150,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>260</v>
@@ -13261,7 +13264,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>262</v>
@@ -13377,7 +13380,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>271</v>
@@ -13491,7 +13494,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>279</v>
@@ -13537,7 +13540,7 @@
         <v>77</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>77</v>
@@ -13576,7 +13579,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13591,10 +13594,10 @@
         <v>100</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -13605,10 +13608,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13634,14 +13637,14 @@
         <v>167</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -13690,7 +13693,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13705,10 +13708,10 @@
         <v>100</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
@@ -13719,10 +13722,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13745,19 +13748,19 @@
         <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>77</v>
@@ -13806,7 +13809,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13821,10 +13824,10 @@
         <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
@@ -13835,10 +13838,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13864,16 +13867,16 @@
         <v>167</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>77</v>
@@ -13922,7 +13925,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13937,10 +13940,10 @@
         <v>100</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>77</v>
@@ -13951,7 +13954,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>196</v>
@@ -13980,13 +13983,13 @@
         <v>102</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>200</v>
@@ -14067,7 +14070,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>206</v>
@@ -14096,10 +14099,10 @@
         <v>167</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>209</v>
@@ -14181,7 +14184,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>215</v>
@@ -14293,7 +14296,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>223</v>
@@ -14407,10 +14410,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14433,70 +14436,70 @@
         <v>89</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q102" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF102" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="P102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q102" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14514,21 +14517,21 @@
         <v>77</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14551,19 +14554,19 @@
         <v>89</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -14612,7 +14615,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14627,13 +14630,13 @@
         <v>100</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>77</v>
@@ -14641,10 +14644,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14753,10 +14756,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14867,10 +14870,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14896,16 +14899,16 @@
         <v>108</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -14915,7 +14918,7 @@
         <v>77</v>
       </c>
       <c r="S106" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="T106" t="s" s="2">
         <v>77</v>
@@ -14933,10 +14936,10 @@
         <v>182</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>77</v>
@@ -14954,7 +14957,7 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -14969,13 +14972,13 @@
         <v>100</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>77</v>
@@ -14983,10 +14986,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15012,16 +15015,16 @@
         <v>167</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>77</v>
@@ -15070,7 +15073,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15085,10 +15088,10 @@
         <v>100</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>77</v>
@@ -15099,14 +15102,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15128,13 +15131,13 @@
         <v>167</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15184,7 +15187,7 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -15199,13 +15202,13 @@
         <v>100</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>77</v>
@@ -15213,10 +15216,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15242,10 +15245,10 @@
         <v>167</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15325,10 +15328,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15354,10 +15357,10 @@
         <v>133</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15435,13 +15438,13 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>77</v>
@@ -15463,13 +15466,13 @@
         <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15549,10 +15552,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15578,10 +15581,10 @@
         <v>167</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15605,7 +15608,7 @@
         <v>77</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="X112" t="s" s="2">
         <v>77</v>
@@ -15632,7 +15635,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -15661,14 +15664,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15690,13 +15693,13 @@
         <v>167</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15746,7 +15749,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -15761,13 +15764,13 @@
         <v>100</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>77</v>
@@ -15775,10 +15778,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15804,10 +15807,10 @@
         <v>167</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -15858,7 +15861,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -15873,13 +15876,13 @@
         <v>100</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>77</v>
@@ -15887,10 +15890,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15916,10 +15919,10 @@
         <v>167</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15970,7 +15973,7 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -15985,10 +15988,10 @@
         <v>100</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>77</v>
@@ -15999,10 +16002,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16028,14 +16031,14 @@
         <v>216</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>77</v>
@@ -16084,7 +16087,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -16099,10 +16102,10 @@
         <v>100</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>222</v>
@@ -16113,10 +16116,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16139,19 +16142,19 @@
         <v>89</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>77</v>
@@ -16200,7 +16203,7 @@
         <v>77</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -16215,13 +16218,13 @@
         <v>100</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>77</v>
@@ -16229,10 +16232,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16341,10 +16344,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16455,10 +16458,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16484,10 +16487,10 @@
         <v>108</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16517,10 +16520,10 @@
         <v>182</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>77</v>
@@ -16538,7 +16541,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -16547,19 +16550,19 @@
         <v>88</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>77</v>
@@ -16567,10 +16570,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16596,16 +16599,16 @@
         <v>167</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>77</v>
@@ -16654,7 +16657,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -16669,10 +16672,10 @@
         <v>100</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>214</v>
@@ -16683,10 +16686,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16712,16 +16715,16 @@
         <v>108</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>77</v>
@@ -16749,10 +16752,10 @@
         <v>182</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>77</v>
@@ -16770,7 +16773,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -16785,13 +16788,13 @@
         <v>100</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>77</v>
@@ -16799,10 +16802,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16825,16 +16828,16 @@
         <v>89</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -16884,7 +16887,7 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -16913,10 +16916,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16942,10 +16945,10 @@
         <v>216</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -16996,7 +16999,7 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
@@ -17014,7 +17017,7 @@
         <v>131</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>222</v>
@@ -17025,10 +17028,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17137,10 +17140,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17251,10 +17254,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17277,16 +17280,16 @@
         <v>89</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -17336,7 +17339,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -17345,16 +17348,16 @@
         <v>88</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>77</v>
@@ -17365,10 +17368,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17391,23 +17394,23 @@
         <v>89</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q128" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R128" t="s" s="2">
         <v>77</v>
@@ -17452,7 +17455,7 @@
         <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>78</v>
@@ -17461,16 +17464,16 @@
         <v>88</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>77</v>
@@ -17481,10 +17484,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17507,19 +17510,19 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>77</v>
@@ -17568,7 +17571,7 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>78</v>
@@ -17583,13 +17586,13 @@
         <v>100</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>77</v>
@@ -17597,10 +17600,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17626,14 +17629,14 @@
         <v>108</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -17661,10 +17664,10 @@
         <v>182</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>77</v>
@@ -17682,7 +17685,7 @@
         <v>77</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>78</v>
@@ -17697,13 +17700,13 @@
         <v>100</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>77</v>
@@ -17711,10 +17714,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17737,17 +17740,17 @@
         <v>89</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -17796,7 +17799,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>78</v>
@@ -17811,13 +17814,13 @@
         <v>100</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>77</v>
@@ -17825,10 +17828,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17851,17 +17854,17 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>77</v>
@@ -17910,7 +17913,7 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
@@ -17928,10 +17931,10 @@
         <v>77</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>77</v>
@@ -17939,10 +17942,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17965,13 +17968,13 @@
         <v>77</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -18010,10 +18013,10 @@
         <v>77</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AC133" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AD133" t="s" s="2">
         <v>77</v>
@@ -18022,7 +18025,7 @@
         <v>137</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -18037,13 +18040,13 @@
         <v>100</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>77</v>
@@ -18051,10 +18054,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18163,10 +18166,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18277,14 +18280,14 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
@@ -18306,10 +18309,10 @@
         <v>133</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N136" t="s" s="2">
         <v>153</v>
@@ -18364,7 +18367,7 @@
         <v>77</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>78</v>
@@ -18393,10 +18396,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18422,14 +18425,14 @@
         <v>157</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>77</v>
@@ -18478,7 +18481,7 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
@@ -18496,7 +18499,7 @@
         <v>77</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>77</v>
@@ -18507,10 +18510,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18536,10 +18539,10 @@
         <v>188</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -18566,13 +18569,13 @@
         <v>77</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>77</v>
@@ -18590,7 +18593,7 @@
         <v>77</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>88</v>
@@ -18608,10 +18611,10 @@
         <v>77</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>77</v>
@@ -18619,10 +18622,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18648,14 +18651,14 @@
         <v>216</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>77</v>
@@ -18704,7 +18707,7 @@
         <v>77</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>78</v>
@@ -18722,10 +18725,10 @@
         <v>77</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>77</v>
@@ -18733,10 +18736,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18762,10 +18765,10 @@
         <v>224</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -18816,7 +18819,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
@@ -18834,7 +18837,7 @@
         <v>77</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>77</v>
@@ -18845,13 +18848,13 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -18873,13 +18876,13 @@
         <v>77</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -18930,7 +18933,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>78</v>
@@ -18945,13 +18948,13 @@
         <v>100</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>77</v>
@@ -18959,10 +18962,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19071,10 +19074,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19185,14 +19188,14 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -19214,10 +19217,10 @@
         <v>133</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N144" t="s" s="2">
         <v>153</v>
@@ -19272,7 +19275,7 @@
         <v>77</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>78</v>
@@ -19301,10 +19304,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19330,14 +19333,14 @@
         <v>157</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -19386,7 +19389,7 @@
         <v>77</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>78</v>
@@ -19404,7 +19407,7 @@
         <v>77</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>77</v>
@@ -19415,10 +19418,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19527,10 +19530,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19641,10 +19644,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19757,10 +19760,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19873,10 +19876,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19989,10 +19992,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20018,10 +20021,10 @@
         <v>167</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N151" t="s" s="2">
         <v>209</v>
@@ -20035,7 +20038,7 @@
         <v>77</v>
       </c>
       <c r="S151" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>210</v>
@@ -20103,10 +20106,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20215,10 +20218,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20329,10 +20332,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20358,10 +20361,10 @@
         <v>188</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -20388,13 +20391,13 @@
         <v>77</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>77</v>
@@ -20412,7 +20415,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>88</v>
@@ -20430,10 +20433,10 @@
         <v>77</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>77</v>
@@ -20441,10 +20444,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20553,10 +20556,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20667,10 +20670,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20783,10 +20786,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20895,10 +20898,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21009,10 +21012,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21038,10 +21041,10 @@
         <v>102</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N160" t="s" s="2">
         <v>265</v>
@@ -21125,10 +21128,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21239,10 +21242,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21268,10 +21271,10 @@
         <v>108</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -21324,7 +21327,7 @@
         <v>77</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>78</v>
@@ -21339,10 +21342,10 @@
         <v>100</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>77</v>
@@ -21353,10 +21356,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21382,14 +21385,14 @@
         <v>167</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -21438,7 +21441,7 @@
         <v>77</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>78</v>
@@ -21453,10 +21456,10 @@
         <v>100</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>77</v>
@@ -21467,10 +21470,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21493,19 +21496,19 @@
         <v>89</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>77</v>
@@ -21554,7 +21557,7 @@
         <v>77</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>78</v>
@@ -21569,10 +21572,10 @@
         <v>100</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>77</v>
@@ -21583,10 +21586,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21612,16 +21615,16 @@
         <v>167</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>77</v>
@@ -21670,7 +21673,7 @@
         <v>77</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>78</v>
@@ -21685,10 +21688,10 @@
         <v>100</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>77</v>
@@ -21699,10 +21702,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21728,14 +21731,14 @@
         <v>216</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>77</v>
@@ -21784,7 +21787,7 @@
         <v>77</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>78</v>
@@ -21802,10 +21805,10 @@
         <v>77</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>77</v>
@@ -21813,10 +21816,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -21842,10 +21845,10 @@
         <v>224</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -21896,7 +21899,7 @@
         <v>77</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>78</v>
@@ -21914,7 +21917,7 @@
         <v>77</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>77</v>
@@ -21925,10 +21928,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22037,10 +22040,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22151,10 +22154,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22180,13 +22183,13 @@
         <v>167</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" t="s" s="2">
@@ -22236,7 +22239,7 @@
         <v>77</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>78</v>
@@ -22245,7 +22248,7 @@
         <v>88</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>100</v>
@@ -22265,10 +22268,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22294,13 +22297,13 @@
         <v>102</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
@@ -22329,10 +22332,10 @@
         <v>240</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Z171" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>77</v>
@@ -22350,7 +22353,7 @@
         <v>77</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>78</v>
@@ -22379,10 +22382,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22408,13 +22411,13 @@
         <v>157</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
@@ -22464,7 +22467,7 @@
         <v>77</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>78</v>
@@ -22482,7 +22485,7 @@
         <v>77</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>77</v>
@@ -22493,10 +22496,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22522,13 +22525,13 @@
         <v>167</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" t="s" s="2">
@@ -22578,7 +22581,7 @@
         <v>77</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>78</v>
@@ -22607,13 +22610,13 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>77</v>
@@ -22635,13 +22638,13 @@
         <v>77</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -22692,7 +22695,7 @@
         <v>77</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>78</v>
@@ -22707,13 +22710,13 @@
         <v>100</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>77</v>
@@ -22721,10 +22724,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -22833,10 +22836,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -22947,14 +22950,14 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
@@ -22976,10 +22979,10 @@
         <v>133</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N177" t="s" s="2">
         <v>153</v>
@@ -23034,7 +23037,7 @@
         <v>77</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>78</v>
@@ -23063,10 +23066,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23092,14 +23095,14 @@
         <v>157</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -23148,7 +23151,7 @@
         <v>77</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>78</v>
@@ -23166,7 +23169,7 @@
         <v>77</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>77</v>
@@ -23177,10 +23180,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23289,10 +23292,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -23403,10 +23406,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -23519,10 +23522,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -23635,10 +23638,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -23751,10 +23754,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -23780,10 +23783,10 @@
         <v>167</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N184" t="s" s="2">
         <v>209</v>
@@ -23797,7 +23800,7 @@
         <v>77</v>
       </c>
       <c r="S184" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="T184" t="s" s="2">
         <v>210</v>
@@ -23865,10 +23868,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -23977,10 +23980,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24091,10 +24094,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24120,10 +24123,10 @@
         <v>188</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -24150,13 +24153,13 @@
         <v>77</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Z187" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AA187" t="s" s="2">
         <v>77</v>
@@ -24174,7 +24177,7 @@
         <v>77</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>88</v>
@@ -24192,10 +24195,10 @@
         <v>77</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>77</v>
@@ -24203,10 +24206,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24315,10 +24318,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -24429,10 +24432,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -24545,10 +24548,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -24657,10 +24660,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -24771,10 +24774,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -24800,10 +24803,10 @@
         <v>102</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="N193" t="s" s="2">
         <v>265</v>
@@ -24887,10 +24890,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -25001,10 +25004,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -25086,7 +25089,7 @@
         <v>77</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>78</v>
@@ -25101,10 +25104,10 @@
         <v>100</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>77</v>
@@ -25115,10 +25118,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -25144,14 +25147,14 @@
         <v>167</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>77</v>
@@ -25200,7 +25203,7 @@
         <v>77</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>78</v>
@@ -25215,10 +25218,10 @@
         <v>100</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>77</v>
@@ -25229,10 +25232,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -25255,19 +25258,19 @@
         <v>89</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>77</v>
@@ -25316,7 +25319,7 @@
         <v>77</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>78</v>
@@ -25331,10 +25334,10 @@
         <v>100</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>77</v>
@@ -25345,10 +25348,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -25374,16 +25377,16 @@
         <v>167</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>77</v>
@@ -25432,7 +25435,7 @@
         <v>77</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>78</v>
@@ -25447,10 +25450,10 @@
         <v>100</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>77</v>
@@ -25461,10 +25464,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -25490,14 +25493,14 @@
         <v>216</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>77</v>
@@ -25546,7 +25549,7 @@
         <v>77</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>78</v>
@@ -25564,10 +25567,10 @@
         <v>77</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>77</v>
@@ -25575,10 +25578,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -25604,10 +25607,10 @@
         <v>224</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -25658,7 +25661,7 @@
         <v>77</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>78</v>
@@ -25676,7 +25679,7 @@
         <v>77</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>77</v>
@@ -25687,10 +25690,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -25799,10 +25802,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -25913,10 +25916,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -25942,13 +25945,13 @@
         <v>167</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="O203" s="2"/>
       <c r="P203" t="s" s="2">
@@ -25998,7 +26001,7 @@
         <v>77</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>78</v>
@@ -26007,7 +26010,7 @@
         <v>88</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AJ203" t="s" s="2">
         <v>100</v>
@@ -26027,10 +26030,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -26056,13 +26059,13 @@
         <v>102</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
@@ -26091,10 +26094,10 @@
         <v>240</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Z204" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AA204" t="s" s="2">
         <v>77</v>
@@ -26112,7 +26115,7 @@
         <v>77</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>78</v>
@@ -26141,10 +26144,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -26170,13 +26173,13 @@
         <v>157</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
@@ -26226,7 +26229,7 @@
         <v>77</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>78</v>
@@ -26244,7 +26247,7 @@
         <v>77</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM205" t="s" s="2">
         <v>77</v>
@@ -26255,10 +26258,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -26284,13 +26287,13 @@
         <v>167</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
@@ -26340,7 +26343,7 @@
         <v>77</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>78</v>
@@ -26369,13 +26372,13 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D207" t="s" s="2">
         <v>77</v>
@@ -26397,13 +26400,13 @@
         <v>77</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -26454,7 +26457,7 @@
         <v>77</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>78</v>
@@ -26469,13 +26472,13 @@
         <v>100</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AN207" t="s" s="2">
         <v>77</v>
@@ -26483,10 +26486,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -26595,10 +26598,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -26709,14 +26712,14 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" t="s" s="2">
@@ -26738,10 +26741,10 @@
         <v>133</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N210" t="s" s="2">
         <v>153</v>
@@ -26796,7 +26799,7 @@
         <v>77</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>78</v>
@@ -26825,10 +26828,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -26854,14 +26857,14 @@
         <v>157</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>77</v>
@@ -26910,7 +26913,7 @@
         <v>77</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>78</v>
@@ -26928,7 +26931,7 @@
         <v>77</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>77</v>
@@ -26939,10 +26942,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -27051,10 +27054,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -27165,10 +27168,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -27281,10 +27284,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -27397,10 +27400,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -27513,10 +27516,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -27542,10 +27545,10 @@
         <v>167</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N217" t="s" s="2">
         <v>209</v>
@@ -27559,7 +27562,7 @@
         <v>77</v>
       </c>
       <c r="S217" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="T217" t="s" s="2">
         <v>210</v>
@@ -27627,10 +27630,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -27739,10 +27742,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -27853,10 +27856,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -27882,10 +27885,10 @@
         <v>188</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -27912,13 +27915,13 @@
         <v>77</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Z220" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AA220" t="s" s="2">
         <v>77</v>
@@ -27936,7 +27939,7 @@
         <v>77</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>88</v>
@@ -27954,10 +27957,10 @@
         <v>77</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN220" t="s" s="2">
         <v>77</v>
@@ -27965,10 +27968,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -28077,10 +28080,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -28191,10 +28194,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -28307,10 +28310,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -28419,10 +28422,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -28533,10 +28536,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -28562,10 +28565,10 @@
         <v>102</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N226" t="s" s="2">
         <v>265</v>
@@ -28649,10 +28652,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -28763,10 +28766,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -28848,7 +28851,7 @@
         <v>77</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>78</v>
@@ -28863,10 +28866,10 @@
         <v>100</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL228" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM228" t="s" s="2">
         <v>77</v>
@@ -28877,10 +28880,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -28906,14 +28909,14 @@
         <v>167</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P229" t="s" s="2">
         <v>77</v>
@@ -28962,7 +28965,7 @@
         <v>77</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>78</v>
@@ -28977,10 +28980,10 @@
         <v>100</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL229" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM229" t="s" s="2">
         <v>77</v>
@@ -28991,10 +28994,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -29017,19 +29020,19 @@
         <v>89</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>77</v>
@@ -29078,7 +29081,7 @@
         <v>77</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>78</v>
@@ -29093,10 +29096,10 @@
         <v>100</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL230" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM230" t="s" s="2">
         <v>77</v>
@@ -29107,10 +29110,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -29136,16 +29139,16 @@
         <v>167</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P231" t="s" s="2">
         <v>77</v>
@@ -29194,7 +29197,7 @@
         <v>77</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>78</v>
@@ -29209,10 +29212,10 @@
         <v>100</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>77</v>
@@ -29223,10 +29226,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -29252,14 +29255,14 @@
         <v>216</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P232" t="s" s="2">
         <v>77</v>
@@ -29308,7 +29311,7 @@
         <v>77</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>78</v>
@@ -29326,10 +29329,10 @@
         <v>77</v>
       </c>
       <c r="AL232" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AM232" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AN232" t="s" s="2">
         <v>77</v>
@@ -29337,10 +29340,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -29366,10 +29369,10 @@
         <v>224</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
@@ -29420,7 +29423,7 @@
         <v>77</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>78</v>
@@ -29438,7 +29441,7 @@
         <v>77</v>
       </c>
       <c r="AL233" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM233" t="s" s="2">
         <v>77</v>
@@ -29449,10 +29452,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -29561,10 +29564,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -29675,10 +29678,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -29704,13 +29707,13 @@
         <v>167</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="O236" s="2"/>
       <c r="P236" t="s" s="2">
@@ -29760,7 +29763,7 @@
         <v>77</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>78</v>
@@ -29769,7 +29772,7 @@
         <v>88</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AJ236" t="s" s="2">
         <v>100</v>
@@ -29789,10 +29792,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -29818,13 +29821,13 @@
         <v>102</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" t="s" s="2">
@@ -29853,10 +29856,10 @@
         <v>240</v>
       </c>
       <c r="Y237" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Z237" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AA237" t="s" s="2">
         <v>77</v>
@@ -29874,7 +29877,7 @@
         <v>77</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>78</v>
@@ -29903,10 +29906,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -29932,13 +29935,13 @@
         <v>157</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
@@ -29988,7 +29991,7 @@
         <v>77</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>78</v>
@@ -30006,7 +30009,7 @@
         <v>77</v>
       </c>
       <c r="AL238" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM238" t="s" s="2">
         <v>77</v>
@@ -30017,10 +30020,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -30046,13 +30049,13 @@
         <v>167</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O239" s="2"/>
       <c r="P239" t="s" s="2">
@@ -30102,7 +30105,7 @@
         <v>77</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>78</v>
@@ -30131,10 +30134,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -30160,16 +30163,16 @@
         <v>188</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="O240" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>77</v>
@@ -30218,7 +30221,7 @@
         <v>77</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>78</v>
@@ -30233,13 +30236,13 @@
         <v>100</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AL240" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AM240" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AN240" t="s" s="2">
         <v>77</v>

--- a/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
